--- a/Dataset Excel Sheets/Frames/Test/Frames for P5.xlsx
+++ b/Dataset Excel Sheets/Frames/Test/Frames for P5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salma\Desktop\Senior Design\CSE 491 - Senior Design II\github\Senior-Design-Code\Dataset Excel Sheets\Frames\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50DC61C-7533-407C-AE7D-627A9AFE9137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E320430E-4E4C-4153-AE27-D2EAD00F854F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>count</t>
   </si>
@@ -43,26 +43,32 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>2: [2, 2]</t>
+    <t>No overlap between 2 &amp; 3</t>
   </si>
   <si>
-    <t>No overlap between anything</t>
+    <t>2: [71, 108]</t>
   </si>
   <si>
-    <t>3: [3, 3]</t>
+    <t>3: [108, 136]</t>
   </si>
   <si>
-    <t>4: [4, 4]</t>
+    <t>4: [132, 170]</t>
   </si>
   <si>
-    <t>5: [5, 5]</t>
+    <t>5: [154.25, 184]</t>
+  </si>
+  <si>
+    <t>Slight overlap between 3 &amp; 4 (4 frames)</t>
+  </si>
+  <si>
+    <t>Small overlap between 4 &amp; 5 (15.75 frames)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +80,22 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -97,7 +119,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -117,6 +139,19 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -244,38 +279,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -583,12 +622,16 @@
   <dimension ref="A1:N229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="14" max="14" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -607,2436 +650,2448 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
+        <v>57</v>
+      </c>
+      <c r="B2">
+        <v>129</v>
+      </c>
+      <c r="C2">
+        <v>129</v>
+      </c>
+      <c r="D2">
+        <v>168</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="H2" s="7">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="I2" s="7">
         <v>4</v>
       </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5">
-        <v>2</v>
-      </c>
-      <c r="H2" s="5">
-        <v>3</v>
-      </c>
-      <c r="I2" s="5">
-        <v>4</v>
-      </c>
-      <c r="J2" s="6">
+      <c r="J2" s="8">
         <v>5</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="M2" s="3"/>
       <c r="N2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="F3" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="5">
         <v>228</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="5">
         <v>180</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="5">
         <v>102</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="10">
         <v>98</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>115</v>
       </c>
       <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="F4" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="3">
-        <v>2</v>
-      </c>
-      <c r="H4" s="3">
-        <v>3</v>
-      </c>
-      <c r="I4" s="3">
-        <v>4</v>
-      </c>
-      <c r="J4" s="8">
-        <v>5</v>
-      </c>
-      <c r="L4" s="2" t="s">
+      <c r="G4" s="5">
+        <v>87.956140000000005</v>
+      </c>
+      <c r="H4" s="5">
+        <v>122.61111099999999</v>
+      </c>
+      <c r="I4" s="5">
+        <v>151.17647099999999</v>
+      </c>
+      <c r="J4" s="10">
+        <v>169.295918</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
+        <v>77</v>
+      </c>
+      <c r="B5">
+        <v>136</v>
+      </c>
+      <c r="C5">
+        <v>131</v>
+      </c>
+      <c r="D5">
+        <v>171</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" s="8">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2" t="s">
+      <c r="G5" s="5">
+        <v>21.888943000000001</v>
+      </c>
+      <c r="H5" s="5">
+        <v>20.263180999999999</v>
+      </c>
+      <c r="I5" s="5">
+        <v>28.247986999999998</v>
+      </c>
+      <c r="J5" s="10">
+        <v>23.107195000000001</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="B6">
+        <v>133</v>
+      </c>
+      <c r="C6">
+        <v>118</v>
+      </c>
+      <c r="D6">
+        <v>146</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="3">
-        <v>2</v>
-      </c>
-      <c r="H6" s="3">
-        <v>3</v>
-      </c>
-      <c r="I6" s="3">
-        <v>4</v>
-      </c>
-      <c r="J6" s="8">
-        <v>5</v>
-      </c>
-      <c r="L6" s="2" t="s">
+      <c r="G6" s="5">
+        <v>43</v>
+      </c>
+      <c r="H6" s="5">
+        <v>73</v>
+      </c>
+      <c r="I6" s="5">
+        <v>94</v>
+      </c>
+      <c r="J6" s="10">
+        <v>78</v>
+      </c>
+      <c r="L6" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>131</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>135</v>
       </c>
       <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="F7" s="9">
+        <v>151</v>
+      </c>
+      <c r="F7" s="11">
         <v>0.25</v>
       </c>
-      <c r="G7" s="3">
-        <v>2</v>
-      </c>
-      <c r="H7" s="3">
-        <v>3</v>
-      </c>
-      <c r="I7" s="3">
-        <v>4</v>
-      </c>
-      <c r="J7" s="8">
-        <v>5</v>
+      <c r="G7" s="5">
+        <v>71</v>
+      </c>
+      <c r="H7" s="5">
+        <v>108</v>
+      </c>
+      <c r="I7" s="5">
+        <v>132</v>
+      </c>
+      <c r="J7" s="10">
+        <v>154.25</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>139</v>
       </c>
       <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="F8" s="9">
+        <v>194</v>
+      </c>
+      <c r="F8" s="11">
         <v>0.5</v>
       </c>
-      <c r="G8" s="3">
-        <v>2</v>
-      </c>
-      <c r="H8" s="3">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3">
-        <v>4</v>
-      </c>
-      <c r="J8" s="8">
-        <v>5</v>
+      <c r="G8" s="5">
+        <v>84</v>
+      </c>
+      <c r="H8" s="5">
+        <v>120</v>
+      </c>
+      <c r="I8" s="5">
+        <v>149</v>
+      </c>
+      <c r="J8" s="10">
+        <v>168.5</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="F9" s="9">
+        <v>184</v>
+      </c>
+      <c r="F9" s="11">
         <v>0.75</v>
       </c>
-      <c r="G9" s="3">
-        <v>2</v>
-      </c>
-      <c r="H9" s="3">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3">
-        <v>4</v>
-      </c>
-      <c r="J9" s="8">
-        <v>5</v>
+      <c r="G9" s="5">
+        <v>108</v>
+      </c>
+      <c r="H9" s="5">
+        <v>136</v>
+      </c>
+      <c r="I9" s="5">
+        <v>170</v>
+      </c>
+      <c r="J9" s="10">
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>106</v>
       </c>
       <c r="C10">
+        <v>160</v>
+      </c>
+      <c r="D10">
+        <v>134</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="11">
-        <v>2</v>
-      </c>
-      <c r="H10" s="11">
-        <v>3</v>
-      </c>
-      <c r="I10" s="11">
-        <v>4</v>
-      </c>
-      <c r="J10" s="12">
-        <v>5</v>
+      <c r="G10" s="13">
+        <v>131</v>
+      </c>
+      <c r="H10" s="13">
+        <v>189</v>
+      </c>
+      <c r="I10" s="13">
+        <v>240</v>
+      </c>
+      <c r="J10" s="14">
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>148</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>168</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>188</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>147</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>123</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>145</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>152</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>130</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>158</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>170</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>140</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>171</v>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>145</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>141</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>178</v>
       </c>
       <c r="D24">
-        <v>5</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>184</v>
       </c>
       <c r="D25">
-        <v>5</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>152</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>152</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>154</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>147</v>
       </c>
       <c r="D28">
-        <v>5</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>140</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>203</v>
       </c>
       <c r="D29">
-        <v>5</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>179</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>125</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>153</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>168</v>
       </c>
       <c r="D32">
-        <v>5</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>156</v>
       </c>
       <c r="D33">
-        <v>5</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>165</v>
       </c>
       <c r="D34">
-        <v>5</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="D35">
-        <v>5</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>172</v>
       </c>
       <c r="D36">
-        <v>5</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="C37">
-        <v>4</v>
+        <v>142</v>
       </c>
       <c r="D37">
-        <v>5</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>129</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="D38">
-        <v>5</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>127</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>127</v>
       </c>
       <c r="D39">
-        <v>5</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="C40">
-        <v>4</v>
+        <v>128</v>
       </c>
       <c r="D40">
-        <v>5</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>128</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>141</v>
       </c>
       <c r="D41">
-        <v>5</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="D42">
-        <v>5</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>132</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>141</v>
       </c>
       <c r="D43">
-        <v>5</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="B44">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="C44">
-        <v>4</v>
+        <v>187</v>
       </c>
       <c r="D44">
-        <v>5</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>157</v>
       </c>
       <c r="D45">
-        <v>5</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="C46">
-        <v>4</v>
+        <v>165</v>
       </c>
       <c r="D46">
-        <v>5</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="D47">
-        <v>5</v>
+        <v>177</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="B48">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="C48">
-        <v>4</v>
+        <v>172</v>
       </c>
       <c r="D48">
-        <v>5</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="C49">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="D49">
-        <v>5</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>2</v>
+        <v>126</v>
       </c>
       <c r="B50">
-        <v>3</v>
+        <v>159</v>
       </c>
       <c r="C50">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="D50">
-        <v>5</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>2</v>
+        <v>124</v>
       </c>
       <c r="B51">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="C51">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="D51">
-        <v>5</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="B52">
-        <v>3</v>
+        <v>155</v>
       </c>
       <c r="C52">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="D52">
-        <v>5</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="B53">
-        <v>3</v>
+        <v>145</v>
       </c>
       <c r="C53">
-        <v>4</v>
+        <v>115</v>
       </c>
       <c r="D53">
-        <v>5</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="B54">
-        <v>3</v>
+        <v>189</v>
       </c>
       <c r="C54">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="D54">
-        <v>5</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>2</v>
+        <v>119</v>
       </c>
       <c r="B55">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="C55">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="D55">
-        <v>5</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="B56">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="C56">
-        <v>4</v>
+        <v>222</v>
       </c>
       <c r="D56">
-        <v>5</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="B57">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="C57">
-        <v>4</v>
+        <v>240</v>
       </c>
       <c r="D57">
-        <v>5</v>
+        <v>144</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="B58">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="C58">
-        <v>4</v>
+        <v>170</v>
       </c>
       <c r="D58">
-        <v>5</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="B59">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="C59">
-        <v>4</v>
+        <v>186</v>
       </c>
       <c r="D59">
-        <v>5</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="B60">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="C60">
-        <v>4</v>
+        <v>186</v>
       </c>
       <c r="D60">
-        <v>5</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="C61">
-        <v>4</v>
+        <v>170</v>
       </c>
       <c r="D61">
-        <v>5</v>
+        <v>140</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="B62">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="C62">
-        <v>4</v>
+        <v>212</v>
       </c>
       <c r="D62">
-        <v>5</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="B63">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="C63">
-        <v>4</v>
+        <v>178</v>
       </c>
       <c r="D63">
-        <v>5</v>
+        <v>144</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>111</v>
       </c>
       <c r="C64">
-        <v>4</v>
+        <v>185</v>
       </c>
       <c r="D64">
-        <v>5</v>
+        <v>221</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="C65">
-        <v>4</v>
+        <v>188</v>
       </c>
       <c r="D65">
-        <v>5</v>
+        <v>219</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="B66">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="C66">
-        <v>4</v>
+        <v>187</v>
       </c>
       <c r="D66">
-        <v>5</v>
+        <v>207</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="B67">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="C67">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="D67">
-        <v>5</v>
+        <v>201</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="C68">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="D68">
-        <v>5</v>
+        <v>211</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>2</v>
+        <v>114</v>
       </c>
       <c r="B69">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="C69">
-        <v>4</v>
+        <v>149</v>
       </c>
       <c r="D69">
-        <v>5</v>
+        <v>196</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="B70">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C70">
-        <v>4</v>
+        <v>147</v>
       </c>
       <c r="D70">
-        <v>5</v>
+        <v>186</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="B71">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="C71">
-        <v>4</v>
+        <v>141</v>
       </c>
       <c r="D71">
-        <v>5</v>
+        <v>177</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>2</v>
+        <v>103</v>
       </c>
       <c r="B72">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="C72">
-        <v>4</v>
+        <v>151</v>
       </c>
       <c r="D72">
-        <v>5</v>
+        <v>185</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="B73">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="C73">
-        <v>4</v>
+        <v>135</v>
       </c>
       <c r="D73">
-        <v>5</v>
+        <v>177</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="B74">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="C74">
-        <v>4</v>
+        <v>207</v>
       </c>
       <c r="D74">
-        <v>5</v>
+        <v>197</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="C75">
-        <v>4</v>
+        <v>186</v>
       </c>
       <c r="D75">
-        <v>5</v>
+        <v>183</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="C76">
-        <v>4</v>
+        <v>169</v>
       </c>
       <c r="D76">
-        <v>5</v>
+        <v>222</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="C77">
-        <v>4</v>
+        <v>180</v>
       </c>
       <c r="D77">
-        <v>5</v>
+        <v>183</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="C78">
-        <v>4</v>
+        <v>154</v>
       </c>
       <c r="D78">
-        <v>5</v>
+        <v>190</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="B79">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="C79">
-        <v>4</v>
+        <v>144</v>
       </c>
       <c r="D79">
-        <v>5</v>
+        <v>189</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="C80">
-        <v>4</v>
+        <v>135</v>
       </c>
       <c r="D80">
-        <v>5</v>
+        <v>184</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>3</v>
+        <v>128</v>
       </c>
       <c r="C81">
-        <v>4</v>
+        <v>129</v>
       </c>
       <c r="D81">
-        <v>5</v>
+        <v>182</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>3</v>
+        <v>111</v>
       </c>
       <c r="C82">
-        <v>4</v>
+        <v>126</v>
       </c>
       <c r="D82">
-        <v>5</v>
+        <v>193</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="B83">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="C83">
-        <v>4</v>
+        <v>122</v>
       </c>
       <c r="D83">
-        <v>5</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="B84">
-        <v>3</v>
+        <v>129</v>
       </c>
       <c r="C84">
-        <v>4</v>
+        <v>118</v>
       </c>
       <c r="D84">
-        <v>5</v>
+        <v>176</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="B85">
-        <v>3</v>
+        <v>127</v>
       </c>
       <c r="C85">
-        <v>4</v>
+        <v>139</v>
       </c>
       <c r="D85">
-        <v>5</v>
+        <v>180</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="B86">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="C86">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="D86">
-        <v>5</v>
+        <v>181</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>2</v>
+        <v>127</v>
       </c>
       <c r="B87">
-        <v>3</v>
+        <v>133</v>
       </c>
       <c r="C87">
-        <v>4</v>
+        <v>174</v>
       </c>
       <c r="D87">
-        <v>5</v>
+        <v>170</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>2</v>
+        <v>112</v>
       </c>
       <c r="B88">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="C88">
-        <v>4</v>
+        <v>152</v>
       </c>
       <c r="D88">
-        <v>5</v>
+        <v>178</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="B89">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="C89">
-        <v>4</v>
+        <v>147</v>
       </c>
       <c r="D89">
-        <v>5</v>
+        <v>198</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="B90">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="C90">
-        <v>4</v>
+        <v>153</v>
       </c>
       <c r="D90">
-        <v>5</v>
+        <v>179</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="B91">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="C91">
-        <v>4</v>
+        <v>163</v>
       </c>
       <c r="D91">
-        <v>5</v>
+        <v>175</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="B92">
-        <v>3</v>
+        <v>129</v>
       </c>
       <c r="C92">
-        <v>4</v>
+        <v>159</v>
       </c>
       <c r="D92">
-        <v>5</v>
+        <v>186</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="B93">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="C93">
-        <v>4</v>
+        <v>137</v>
       </c>
       <c r="D93">
-        <v>5</v>
+        <v>196</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B94">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="C94">
-        <v>4</v>
+        <v>136</v>
       </c>
       <c r="D94">
-        <v>5</v>
+        <v>166</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="B95">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="C95">
-        <v>4</v>
+        <v>136</v>
       </c>
       <c r="D95">
-        <v>5</v>
+        <v>152</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B96">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="C96">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="D96">
-        <v>5</v>
+        <v>154</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="B97">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C97">
-        <v>4</v>
+        <v>149</v>
       </c>
       <c r="D97">
-        <v>5</v>
+        <v>158</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="B98">
-        <v>3</v>
+        <v>130</v>
       </c>
       <c r="C98">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="D98">
-        <v>5</v>
+        <v>151</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="B99">
-        <v>3</v>
+        <v>131</v>
       </c>
       <c r="C99">
-        <v>4</v>
+        <v>124</v>
       </c>
       <c r="D99">
-        <v>5</v>
+        <v>147</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="B100">
-        <v>3</v>
+        <v>125</v>
       </c>
       <c r="C100">
-        <v>4</v>
+        <v>125</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="B101">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="C101">
-        <v>4</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="B102">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="C102">
-        <v>4</v>
+        <v>95</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="B103">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="C103">
-        <v>4</v>
+        <v>103</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="B104">
-        <v>3</v>
+        <v>144</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="B105">
-        <v>3</v>
+        <v>154</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="B106">
-        <v>3</v>
+        <v>145</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="B107">
-        <v>3</v>
+        <v>161</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="B108">
-        <v>3</v>
+        <v>155</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="B109">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="B110">
-        <v>3</v>
+        <v>154</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="B111">
-        <v>3</v>
+        <v>153</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="B112">
-        <v>3</v>
+        <v>146</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="B113">
-        <v>3</v>
+        <v>145</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="B114">
-        <v>3</v>
+        <v>162</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="B115">
-        <v>3</v>
+        <v>159</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="B116">
-        <v>3</v>
+        <v>150</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="B117">
-        <v>3</v>
+        <v>131</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="B118">
-        <v>3</v>
+        <v>125</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="B119">
-        <v>3</v>
+        <v>143</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="B120">
-        <v>3</v>
+        <v>139</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="B121">
-        <v>3</v>
+        <v>128</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="B122">
-        <v>3</v>
+        <v>123</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="B123">
-        <v>3</v>
+        <v>115</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="B124">
-        <v>3</v>
+        <v>128</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="B125">
-        <v>3</v>
+        <v>119</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="B126">
-        <v>3</v>
+        <v>109</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="B127">
-        <v>3</v>
+        <v>103</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="B128">
-        <v>3</v>
+        <v>136</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="B129">
-        <v>3</v>
+        <v>136</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="B130">
-        <v>3</v>
+        <v>131</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="B131">
-        <v>3</v>
+        <v>120</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B132">
-        <v>3</v>
+        <v>143</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="B133">
-        <v>3</v>
+        <v>114</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="B134">
-        <v>3</v>
+        <v>120</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="B135">
-        <v>3</v>
+        <v>120</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="B136">
-        <v>3</v>
+        <v>104</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="B137">
-        <v>3</v>
+        <v>105</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>2</v>
+        <v>116</v>
       </c>
       <c r="B138">
-        <v>3</v>
+        <v>119</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="B139">
-        <v>3</v>
+        <v>123</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="B140">
-        <v>3</v>
+        <v>156</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>2</v>
+        <v>130</v>
       </c>
       <c r="B141">
-        <v>3</v>
+        <v>175</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="B142">
-        <v>3</v>
+        <v>174</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="B143">
-        <v>3</v>
+        <v>144</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="B144">
-        <v>3</v>
+        <v>141</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>2</v>
+        <v>122</v>
       </c>
       <c r="B145">
-        <v>3</v>
+        <v>139</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>2</v>
+        <v>114</v>
       </c>
       <c r="B146">
-        <v>3</v>
+        <v>132</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>2</v>
+        <v>113</v>
       </c>
       <c r="B147">
-        <v>3</v>
+        <v>132</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="B148">
-        <v>3</v>
+        <v>136</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>2</v>
+        <v>116</v>
       </c>
       <c r="B149">
-        <v>3</v>
+        <v>117</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>2</v>
+        <v>124</v>
       </c>
       <c r="B150">
-        <v>3</v>
+        <v>122</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="B151">
-        <v>3</v>
+        <v>114</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="B152">
-        <v>3</v>
+        <v>119</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="B153">
-        <v>3</v>
+        <v>99</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B154">
-        <v>3</v>
+        <v>109</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="B155">
-        <v>3</v>
+        <v>107</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B156">
-        <v>3</v>
+        <v>115</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="B157">
-        <v>3</v>
+        <v>113</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="B158">
-        <v>3</v>
+        <v>132</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="B159">
-        <v>3</v>
+        <v>125</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>2</v>
+        <v>112</v>
       </c>
       <c r="B160">
-        <v>3</v>
+        <v>113</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="B161">
-        <v>3</v>
+        <v>104</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="B162">
-        <v>3</v>
+        <v>99</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>2</v>
+        <v>107</v>
       </c>
       <c r="B163">
-        <v>3</v>
+        <v>105</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>2</v>
+        <v>122</v>
       </c>
       <c r="B164">
-        <v>3</v>
+        <v>126</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="B165">
-        <v>3</v>
+        <v>118</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>2</v>
+        <v>118</v>
       </c>
       <c r="B166">
-        <v>3</v>
+        <v>122</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>2</v>
+        <v>127</v>
       </c>
       <c r="B167">
-        <v>3</v>
+        <v>118</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>2</v>
+        <v>119</v>
       </c>
       <c r="B168">
-        <v>3</v>
+        <v>121</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>2</v>
+        <v>121</v>
       </c>
       <c r="B169">
-        <v>3</v>
+        <v>115</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="B170">
-        <v>3</v>
+        <v>159</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>2</v>
+        <v>126</v>
       </c>
       <c r="B171">
-        <v>3</v>
+        <v>161</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>2</v>
+        <v>119</v>
       </c>
       <c r="B172">
-        <v>3</v>
+        <v>147</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="B173">
-        <v>3</v>
+        <v>134</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="B174">
-        <v>3</v>
+        <v>147</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>2</v>
+        <v>124</v>
       </c>
       <c r="B175">
-        <v>3</v>
+        <v>139</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="B176">
-        <v>3</v>
+        <v>135</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="B177">
-        <v>3</v>
+        <v>139</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="B178">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="B179">
-        <v>3</v>
+        <v>120</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="B180">
-        <v>3</v>
+        <v>118</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="B181">
-        <v>3</v>
+        <v>104</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>2</v>
+        <v>117</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>2</v>
+        <v>131</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>2</v>
+        <v>108</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>2</v>
+        <v>115</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>2</v>
+        <v>109</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>2</v>
+        <v>113</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>2</v>
+        <v>110</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>2</v>
+        <v>105</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>2</v>
+        <v>105</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>2</v>
+        <v>103</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>2</v>
+        <v>90</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>2</v>
+        <v>96</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>2</v>
+        <v>55</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>2</v>
+        <v>54</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>2</v>
+        <v>55</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>2</v>
+        <v>93</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>2</v>
+        <v>95</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>2</v>
+        <v>79</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>2</v>
+        <v>87</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>2</v>
+        <v>92</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>2</v>
+        <v>114</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>2</v>
+        <v>113</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>2</v>
+        <v>107</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>2</v>
+        <v>107</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>2</v>
+        <v>110</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>2</v>
+        <v>110</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>2</v>
+        <v>108</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>2</v>
+        <v>108</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>2</v>
+        <v>114</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>2</v>
+        <v>107</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>2</v>
+        <v>105</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>2</v>
+        <v>82</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>2</v>
+        <v>78</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>2</v>
+        <v>73</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>2</v>
+        <v>66</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>2</v>
+        <v>80</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>2</v>
+        <v>80</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>2</v>
+        <v>81</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>2</v>
+        <v>101</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>2</v>
+        <v>97</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>2</v>
+        <v>86</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>2</v>
+        <v>97</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>2</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
